--- a/biology/Zoologie/Agkistrognathus/Agkistrognathus.xlsx
+++ b/biology/Zoologie/Agkistrognathus/Agkistrognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agkistrognathus campbelli
 Agkistrognathus est un genre éteint de thalattosauriens, de la famille des Thalattosauridae, qui a vécu au cours du Trias inférieur et moyen en Colombie-Britannique, au Canada.
-Il n'existe qu'une seule espèce connue dans ce genre, Agkistrognathus campbelli[1].
+Il n'existe qu'une seule espèce connue dans ce genre, Agkistrognathus campbelli.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Agkistrognathus et l'espèce Agkistrognathus campbelli ont été décrits en 1993 par Elizabeth Laura Nicholls (d) et Donald B. Brinkman (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Agkistrognathus et l'espèce Agkistrognathus campbelli ont été décrits en 1993 par Elizabeth Laura Nicholls (d) et Donald B. Brinkman (d).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre se traduit par « crochet mâchoire » tandis que le nom de l'espèce se réfère à Bob Campbell, le membre de l'équipe qui a découvert le spécimen type[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre se traduit par « crochet mâchoire » tandis que le nom de l'espèce se réfère à Bob Campbell, le membre de l'équipe qui a découvert le spécimen type.
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004)[3] et Wu et al. (2009)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004) et Wu et al. (2009) :
 </t>
         </is>
       </c>
@@ -632,7 +652,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Elizabeth L. Nicholls et Donald Brinkman, « New thalattosaurs (Reptilia: Diapsida) from the Triassic Sulphur Mountain Formation of Wapiti Lake, British Columbia », Journal of Paleontology, Société de paléontologie, vol. 67, no 2,‎ mars 1993, p. 263-278 (ISSN 0022-3360 et 1937-2337, DOI 10.1017/S0022336000032194, lire en ligne)</t>
         </is>
